--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H2">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I2">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J2">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>3.392782693233813</v>
+        <v>9.073712184875333</v>
       </c>
       <c r="R2">
-        <v>3.392782693233813</v>
+        <v>81.66340966387799</v>
       </c>
       <c r="S2">
-        <v>0.1363928088399664</v>
+        <v>0.2434029012179777</v>
       </c>
       <c r="T2">
-        <v>0.1363928088399664</v>
+        <v>0.2434029012179777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H3">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I3">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J3">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>9.861382714446675</v>
+        <v>10.40642832334889</v>
       </c>
       <c r="R3">
-        <v>9.861382714446675</v>
+        <v>93.65785491013999</v>
       </c>
       <c r="S3">
-        <v>0.3964361437446718</v>
+        <v>0.2791530956252009</v>
       </c>
       <c r="T3">
-        <v>0.3964361437446718</v>
+        <v>0.2791530956252009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H4">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I4">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J4">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>0.5419238259325513</v>
+        <v>0.6987851768115556</v>
       </c>
       <c r="R4">
-        <v>0.5419238259325513</v>
+        <v>6.289066591304</v>
       </c>
       <c r="S4">
-        <v>0.02178580813432247</v>
+        <v>0.01874495640798056</v>
       </c>
       <c r="T4">
-        <v>0.02178580813432247</v>
+        <v>0.01874495640798056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H5">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I5">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J5">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>0.8962531961357111</v>
+        <v>1.156068270238222</v>
       </c>
       <c r="R5">
-        <v>0.8962531961357111</v>
+        <v>10.404614432144</v>
       </c>
       <c r="S5">
-        <v>0.03603015633642961</v>
+        <v>0.03101160420881241</v>
       </c>
       <c r="T5">
-        <v>0.03603015633642961</v>
+        <v>0.03101160420881241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H6">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I6">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J6">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>1.27262039613354</v>
+        <v>3.703761931604001</v>
       </c>
       <c r="R6">
-        <v>1.27262039613354</v>
+        <v>33.333857384436</v>
       </c>
       <c r="S6">
-        <v>0.05116044442275817</v>
+        <v>0.09935364723996928</v>
       </c>
       <c r="T6">
-        <v>0.05116044442275817</v>
+        <v>0.09935364723996928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H7">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I7">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J7">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>3.698968637605788</v>
+        <v>4.247757949853334</v>
       </c>
       <c r="R7">
-        <v>3.698968637605788</v>
+        <v>38.22982154868</v>
       </c>
       <c r="S7">
-        <v>0.1487017495403231</v>
+        <v>0.1139463747141364</v>
       </c>
       <c r="T7">
-        <v>0.1487017495403231</v>
+        <v>0.1139463747141364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H8">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I8">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J8">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>0.2032736477369666</v>
+        <v>0.2852342992053334</v>
       </c>
       <c r="R8">
-        <v>0.2032736477369666</v>
+        <v>2.567108692848</v>
       </c>
       <c r="S8">
-        <v>0.008171777058779077</v>
+        <v>0.007651428052697126</v>
       </c>
       <c r="T8">
-        <v>0.008171777058779077</v>
+        <v>0.007651428052697126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H9">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I9">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J9">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>0.3361813003163585</v>
+        <v>0.4718908383253334</v>
       </c>
       <c r="R9">
-        <v>0.3361813003163585</v>
+        <v>4.247017544928</v>
       </c>
       <c r="S9">
-        <v>0.01351478004207695</v>
+        <v>0.01265850147837237</v>
       </c>
       <c r="T9">
-        <v>0.01351478004207695</v>
+        <v>0.01265850147837237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H10">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I10">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J10">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>1.078797182681445</v>
+        <v>3.076995729763667</v>
       </c>
       <c r="R10">
-        <v>1.078797182681445</v>
+        <v>27.692961567873</v>
       </c>
       <c r="S10">
-        <v>0.04336858302419563</v>
+        <v>0.08254060437449229</v>
       </c>
       <c r="T10">
-        <v>0.04336858302419563</v>
+        <v>0.08254060437449229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H11">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I11">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J11">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>3.135606624881892</v>
+        <v>3.528934449387778</v>
       </c>
       <c r="R11">
-        <v>3.135606624881892</v>
+        <v>31.76041004449</v>
       </c>
       <c r="S11">
-        <v>0.1260541076909387</v>
+        <v>0.0946638890112485</v>
       </c>
       <c r="T11">
-        <v>0.1260541076909387</v>
+        <v>0.09466388901124852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H12">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I12">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J12">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>0.1723145716965306</v>
+        <v>0.2369657491071112</v>
       </c>
       <c r="R12">
-        <v>0.1723145716965306</v>
+        <v>2.132691741964</v>
       </c>
       <c r="S12">
-        <v>0.00692719533279166</v>
+        <v>0.006356621154250851</v>
       </c>
       <c r="T12">
-        <v>0.00692719533279166</v>
+        <v>0.006356621154250851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H13">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I13">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J13">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>0.284980062203416</v>
+        <v>0.3920354821004444</v>
       </c>
       <c r="R13">
-        <v>0.284980062203416</v>
+        <v>3.528319338904</v>
       </c>
       <c r="S13">
-        <v>0.0114564458327463</v>
+        <v>0.01051637651486163</v>
       </c>
       <c r="T13">
-        <v>0.0114564458327463</v>
+        <v>0.01051637651486163</v>
       </c>
     </row>
   </sheetData>
